--- a/Stolen/Suslov/Книга1.xlsx
+++ b/Stolen/Suslov/Книга1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1234е2321амв\КП\Курсовая работа Суслова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__REMOTE__\Course-project-on-network-administration\Stolen\Suslov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99601357-39B6-4540-973A-5D195B869791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{023EB6B7-110E-4D4A-BC48-0A1369E1E677}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,15 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Макс</t>
+  </si>
+  <si>
+    <t>Разница</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,11 +382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AECA7-4D18-4CAF-9A2D-9BAF269C3067}">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +817,287 @@
         <v>13.83</v>
       </c>
     </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>B7-B2</f>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f>C7-C2</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:F18" si="1">D7-D2</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="G18">
+        <f>G7-G2</f>
+        <v>-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:L18" si="2">H7-H2</f>
+        <v>0.38999999999999879</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" ref="B19:L19" si="3">B8-B3</f>
+        <v>0.42999999999999972</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>0.43000000000000149</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>-0.43000000000000149</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>-0.29999999999999893</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>-0.75999999999999979</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" ref="B20:L20" si="4">B9-B4</f>
+        <v>0.21999999999999886</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>0.42999999999999972</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>-0.21999999999999886</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>-0.83000000000000007</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>-0.53000000000000114</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" ref="B21:L21" si="5">B10-B5</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>0.53999999999999915</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>-0.33000000000000007</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>-0.83000000000000007</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>-0.53999999999999915</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" ref="B22:L22" si="6">B11-B6</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="6"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>0.4399999999999995</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>-0.33000000000000007</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>-0.54000000000000092</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>-0.4399999999999995</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" ref="B23:L23" si="7">B12-B7</f>
+        <v>-3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="7"/>
+        <v>-10.9</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="7"/>
+        <v>-20.2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>-23.8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>-13.83</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>-11.29</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>-20.420000000000002</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>-23.99</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>-14.14</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>-23.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Stolen/Suslov/Книга1.xlsx
+++ b/Stolen/Suslov/Книга1.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
